--- a/data/trans_camb/P25_12-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25_12-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,86</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,93</t>
+          <t>8,92</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>13,51</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4,78</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8,38</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 8,61</t>
+          <t>-6,33; 10,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 3,81</t>
+          <t>-17,25; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 20,19</t>
+          <t>-6,19; 16,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 17,89</t>
+          <t>-3,86; 21,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 11,67</t>
+          <t>-3,06; 22,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 8,49</t>
+          <t>-0,06; 27,95</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 13,1</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 9,98</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 17,04</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>50,41%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-25,13%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>205,01%</t>
+          <t>117,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>164,92%</t>
+          <t>143,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>140,53%</t>
+          <t>152,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>76,2%</t>
+          <t>217,54%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>99,24%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>59,34%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>173,86%</t>
         </is>
       </c>
     </row>
@@ -725,22 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 1197,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,53; 930,88</t>
+          <t>-52,13; 1238,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 660,78</t>
+          <t>-46,84; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,32; 500,76</t>
+          <t>-17,97; 1547,96</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-48,25; 760,75</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-60,87; 621,66</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-19,55; 1030,91</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,18</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,48</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-5,87</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,43</t>
+          <t>6,24</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-3,73</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-5,1</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 7,77</t>
+          <t>-14,63; 9,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 2,87</t>
+          <t>-16,03; 6,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 3,46</t>
+          <t>-17,16; 5,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 2,6</t>
+          <t>-18,13; 6,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 3,31</t>
+          <t>-18,38; 4,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 0,83</t>
+          <t>-8,49; 20,85</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-13,39; 3,41</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-14,06; 1,42</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-10,31; 7,66</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,83%</t>
+          <t>-36,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-43,41%</t>
+          <t>-45,82%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-36,78%</t>
+          <t>-49,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-48,24%</t>
+          <t>-36,49%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-27,63%</t>
+          <t>-53,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-47,44%</t>
+          <t>57,04%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-36,5%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-49,95%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-2,32%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-79,2; 250,67</t>
+          <t>-100,0; 373,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-88,8; 118,4</t>
+          <t>-93,64; 259,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-83,01; 75,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-85,32; 61,48</t>
+          <t>-88,27; 160,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-69,65; 65,27</t>
+          <t>-100,0; 173,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,96; 26,88</t>
+          <t>-53,61; 445,98</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-83,91; 62,88</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-86,55; 42,3</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-63,68; 125,77</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>4,83</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>8,16</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,03</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,57</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3,94</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 6,9</t>
+          <t>-1,0; 15,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 5,6</t>
+          <t>-0,96; 14,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 14,96</t>
+          <t>1,9; 21,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,87; 6,95</t>
+          <t>-2,9; 19,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 9,75</t>
+          <t>-10,26; 8,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 4,66</t>
+          <t>-9,15; 11,75</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-0,35; 13,47</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-5,22; 7,13</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 10,79</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>22,96%</t>
+          <t>318,8%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,64%</t>
+          <t>343,71%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>38,5%</t>
+          <t>659,04%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-8,18%</t>
+          <t>52,73%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>36,24%</t>
+          <t>-6,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-8,33%</t>
+          <t>7,46%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>64,91%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>9,73%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>38,96%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-88,1; 473,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 403,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 117,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-46,55; 55,61</t>
+          <t>-15,34; 188,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,23; 119,79</t>
+          <t>-51,11; 102,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,41; 54,25</t>
+          <t>-43,48; 128,01</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-5,78; 188,89</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-41,94; 111,86</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-25,07; 145,35</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,69</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,3</t>
+          <t>9,22</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>6,7</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5,01</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6,91</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 11,22</t>
+          <t>-2,72; 13,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,23; 15,02</t>
+          <t>0,75; 18,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 11,57</t>
+          <t>-0,2; 18,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 10,5</t>
+          <t>-8,51; 12,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 9,39</t>
+          <t>-8,73; 12,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 10,7</t>
+          <t>-5,78; 17,53</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-3,3; 11,24</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,58; 13,14</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-0,15; 14,34</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>94,07%</t>
+          <t>99,6%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>166,66%</t>
+          <t>186,97%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>157,82%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>30,02%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>35,3%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>31,3%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>40,15%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>55,37%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,44; 468,47</t>
+          <t>-42,01; 826,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>15,55; 659,01</t>
+          <t>0,49; 1143,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 80,19</t>
+          <t>-17,9; 1106,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,37; 74,03</t>
+          <t>-34,32; 101,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 94,99</t>
+          <t>-36,92; 97,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 109,01</t>
+          <t>-24,6; 130,06</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-22,8; 126,11</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-12,05; 150,47</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 155,37</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>9,21</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>10,15</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2,72</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>7,96</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 3,89</t>
+          <t>-12,41; 5,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 9,89</t>
+          <t>-9,51; 11,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 16,19</t>
+          <t>-5,72; 17,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 8,04</t>
+          <t>-7,28; 24,39</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 8,18</t>
+          <t>-11,21; 18,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 6,88</t>
+          <t>-5,4; 27,65</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-7,26; 10,53</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,45; 12,06</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,64; 18,35</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-28,2%</t>
+          <t>-31,63%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>48,68%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>52,65%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-13,04%</t>
+          <t>54,12%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>25,07%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>59,64%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>13,63%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>21,05%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>61,54%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-77,86; 133,9</t>
+          <t>-83,16; 141,55</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-43,66; 251,28</t>
+          <t>-65,91; 228,22</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-29,3; 114,39</t>
+          <t>-44,65; 334,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-54,77; 63,16</t>
+          <t>-35,03; 249,82</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 85,89</t>
+          <t>-48,87; 179,12</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-37,4; 73,76</t>
+          <t>-23,5; 302,69</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-43,75; 120,5</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-36,4; 135,76</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-6,25; 212,14</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-6,01</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>6,38</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>10,5</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>3,85</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>3,06</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>4,67</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 8,53</t>
+          <t>-19,67; 4,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 4,09</t>
+          <t>-18,14; 7,44</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 13,18</t>
+          <t>-9,56; 23,65</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 15,19</t>
+          <t>-2,04; 24,43</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 8,04</t>
+          <t>-8,51; 14,46</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 8,31</t>
+          <t>-6,96; 19,85</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-5,22; 12,67</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-9,16; 7,91</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-4,92; 15,71</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>-55,29%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-45,75%</t>
+          <t>-46,1%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>58,75%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>27,74%</t>
+          <t>161,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>59,01%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>36,24%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-12,57%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>55,32%</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1881,37 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-66,56; 270,46</t>
+          <t>-63,32; 619,06</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-68,45; 291,27</t>
+          <t>-49,34; 1175,49</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-54,56; 177,89</t>
+          <t>-84,47; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-59,93; 175,21</t>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-51,58; 276,26</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-75,71; 186,24</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-46,04; 333,57</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>5,74</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>2,87</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>4,85</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 3,6</t>
+          <t>-4,05; 3,89</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 3,47</t>
+          <t>-3,09; 4,51</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 7,64</t>
+          <t>-0,46; 8,97</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 4,01</t>
+          <t>0,62; 10,46</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 5,03</t>
+          <t>-3,68; 5,79</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 2,88</t>
+          <t>0,43; 10,73</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 6,26</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-2,69; 4,07</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 8,18</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>-1,63%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>64,31%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>43,23%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>43,29%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>28,25%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>8,17%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>47,78%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-31,18; 90,48</t>
+          <t>-47,98; 81,84</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-28,76; 85,4</t>
+          <t>-37,05; 93,77</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 62,7</t>
+          <t>-7,49; 181,85</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 33,1</t>
+          <t>1,97; 92,95</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 57,11</t>
+          <t>-23,0; 52,9</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-18,08; 33,24</t>
+          <t>2,87; 97,54</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-5,24; 73,23</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-21,94; 47,49</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>10,98; 92,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
